--- a/medicine/Œil et vue/Ophtalmoplégie_congénitale/Ophtalmoplégie_congénitale.xlsx
+++ b/medicine/Œil et vue/Ophtalmoplégie_congénitale/Ophtalmoplégie_congénitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ophtalmopl%C3%A9gie_cong%C3%A9nitale</t>
+          <t>Ophtalmoplégie_congénitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ophtalmoplégie congénitale ou fibrose congénitale des muscles oculaires extrinsèques[1] ou fibrose congénitale des muscles oculomoteurs[2],[3] (CFEOM) est une maladie génétique très rare se traduisant par un strabisme avec une paralysie des mouvements de l'œil ou ophtalmoplégie avec ou sans ptosis par atteinte des muscles oculomoteurs dépendants de la IIIe et de la IVe paire des nerfs crâniens .  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ophtalmoplégie congénitale ou fibrose congénitale des muscles oculaires extrinsèques ou fibrose congénitale des muscles oculomoteurs, (CFEOM) est une maladie génétique très rare se traduisant par un strabisme avec une paralysie des mouvements de l'œil ou ophtalmoplégie avec ou sans ptosis par atteinte des muscles oculomoteurs dépendants de la IIIe et de la IVe paire des nerfs crâniens .  
 La limitation du regard vertical est importante (surtout le regard supérieur) et le regard horizontal est moins sévèrement atteint. La compensation de cette limitation se fait par des maintiens anormaux de la tête. 
-La prévalence de cette pathologie est estimée à 1 cas sur 230 000 individus[4].
+La prévalence de cette pathologie est estimée à 1 cas sur 230 000 individus.
 Le tableau ci-dessous résume les différents types de fibrose congénitale des muscles oculomoteurs  
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ophtalmopl%C3%A9gie_cong%C3%A9nitale</t>
+          <t>Ophtalmoplégie_congénitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Caroline V Andrews, Jigar Desai, David G Hunter, Elizabeth C Engle, Congenital Fibrosis of the Extraocular Muscles In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2006. [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Caroline V Andrews, Jigar Desai, David G Hunter, Elizabeth C Engle, Congenital Fibrosis of the Extraocular Muscles In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2006. .</t>
         </is>
       </c>
     </row>
